--- a/biology/Médecine/Fracture_de_la_mâchoire/Fracture_de_la_mâchoire.xlsx
+++ b/biology/Médecine/Fracture_de_la_mâchoire/Fracture_de_la_mâchoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fracture_de_la_m%C3%A2choire</t>
+          <t>Fracture_de_la_mâchoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fracture de la mâchoire ou fracture de la mandibule est une fracture de la mandibule. C'est un type de fracture qui est essentiellement provoqué par des chocs traumatiques (choc sportif, trauma lié à la route, bagarres, etc) et très peu par d'autres causes comme des cancers ou de l'ostéoporose. De ce fait, ce type de fracture se retrouve majoritairement chez la population masculine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fracture_de_la_m%C3%A2choire</t>
+          <t>Fracture_de_la_mâchoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,29 +523,213 @@
           <t>Types de fracture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Classiquement, on distingue les fractures de mandibule en plusieurs catégories qui se regroupent plus ou moins:
-Localisation
-Portion dentée
-Symphysaire,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fracture_de_la_mâchoire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fracture_de_la_m%C3%A2choire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types de fracture</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Portion dentée</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Symphysaire,
 parasymphysaire,
 branche horizontale ou corpus,
-angle.
-Ramus ou branche montante
-Ramus vrai,
-coroné.
-Condyle
-Sous condylienne basse,
+angle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fracture_de_la_mâchoire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fracture_de_la_m%C3%A2choire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types de fracture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ramus ou branche montante</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ramus vrai,
+coroné.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fracture_de_la_mâchoire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fracture_de_la_m%C3%A2choire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types de fracture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Condyle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sous condylienne basse,
 sous-condylienne haute,
 sous capitale,
-capitale (ou diacapitulaire).
-Comminution
-Fracture simple (1 trait de fracture),
+capitale (ou diacapitulaire).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fracture_de_la_mâchoire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fracture_de_la_m%C3%A2choire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de fracture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comminution</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fracture simple (1 trait de fracture),
 fracture avec 2e fragment (2 traits de fracture),
-fracture comminutive (plusieurs traits de fracture).
-Nombre de fractures
-50% des fractures de mandibule sont au minimum double.
+fracture comminutive (plusieurs traits de fracture).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fracture_de_la_mâchoire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fracture_de_la_m%C3%A2choire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Types de fracture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nombre de fractures</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">50% des fractures de mandibule sont au minimum double.
 Unifocale (1 fracture),
 bifocale (2 fractures),
 trifocale (3 fractures),
